--- a/لوائح التلاميذ منفصلة/TCS-3.xlsx
+++ b/لوائح التلاميذ منفصلة/TCS-3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30b93018d7010778/Documents/Classroom Management System/لوائح التلاميذ منفصلة/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{878C01A3-ED42-4448-929B-CAF34B323DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5937CD33-5C14-41E2-B066-A921E4D271B1}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{878C01A3-ED42-4448-929B-CAF34B323DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F419B867-59FF-4247-B3E3-8B7E6B2A8A7C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA434214-E94C-4DEB-8036-ECEFD6763669}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TCS-3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TCS-3'!$A$1:$G$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TCS-3'!$A$1:$F$41</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -904,7 +904,7 @@
   <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,10 +915,9 @@
     <col min="4" max="4" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.453125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="1"/>
+    <col min="7" max="7" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.453125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
